--- a/AVReality/S_ALL copy.xlsx
+++ b/AVReality/S_ALL copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilydoherty/IRES-EmotionNN/AVReality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F82C00A-5AB2-4743-A570-0817A1A33300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070E8942-80AB-D148-A81D-5FA2942980EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="960" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,40 +136,40 @@
     <t>Cognitive Reappraisal / Expressive Suppression</t>
   </si>
   <si>
-    <t>N_Valence</t>
-  </si>
-  <si>
-    <t>N_Arousal</t>
-  </si>
-  <si>
-    <t>N_Dominance</t>
-  </si>
-  <si>
-    <t>N_EMFACS</t>
-  </si>
-  <si>
-    <t>N_Realism</t>
-  </si>
-  <si>
-    <t>N_Appeal</t>
-  </si>
-  <si>
-    <t>N_Familiar</t>
-  </si>
-  <si>
-    <t>N_Friendly</t>
-  </si>
-  <si>
-    <t>N_Trustworthy</t>
-  </si>
-  <si>
-    <t>Happiness</t>
-  </si>
-  <si>
     <t>Sadness</t>
   </si>
   <si>
-    <t>Surprise</t>
+    <t>S_Valence</t>
+  </si>
+  <si>
+    <t>S_Arousal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S_Dominance</t>
+  </si>
+  <si>
+    <t>S_EMFACS</t>
+  </si>
+  <si>
+    <t>S_Realism</t>
+  </si>
+  <si>
+    <t>S_Appeal</t>
+  </si>
+  <si>
+    <t>S_Familiar</t>
+  </si>
+  <si>
+    <t>S_Friendly</t>
+  </si>
+  <si>
+    <t>S_Trustworthy</t>
+  </si>
+  <si>
+    <t>Disgust</t>
+  </si>
+  <si>
+    <t>Anger</t>
   </si>
 </sst>
 </file>
@@ -191,15 +191,33 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -222,14 +240,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,12 +750,15 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="J15" sqref="J15:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,35 +783,35 @@
       <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -622,35 +839,35 @@
       <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2">
-        <v>6</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2">
-        <v>6</v>
-      </c>
-      <c r="Q2">
-        <v>7</v>
-      </c>
-      <c r="R2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J2" s="8">
+        <v>4</v>
+      </c>
+      <c r="K2" s="9">
+        <v>3</v>
+      </c>
+      <c r="L2" s="10">
+        <v>7</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="12">
+        <v>7</v>
+      </c>
+      <c r="O2" s="13">
+        <v>4</v>
+      </c>
+      <c r="P2" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>7</v>
+      </c>
+      <c r="R2" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -678,35 +895,35 @@
       <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J3" s="8">
+        <v>4</v>
+      </c>
+      <c r="K3" s="9">
+        <v>6</v>
+      </c>
+      <c r="L3" s="10">
+        <v>4</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="12">
+        <v>6</v>
+      </c>
+      <c r="O3" s="13">
+        <v>3</v>
+      </c>
+      <c r="P3" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>5</v>
+      </c>
+      <c r="R3" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -734,35 +951,35 @@
       <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <v>6</v>
-      </c>
-      <c r="R4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J4" s="8">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5</v>
+      </c>
+      <c r="L4" s="10">
+        <v>6</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="12">
+        <v>6</v>
+      </c>
+      <c r="O4" s="13">
+        <v>6</v>
+      </c>
+      <c r="P4" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -790,35 +1007,35 @@
       <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
+      <c r="J5" s="8">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7</v>
+      </c>
+      <c r="L5" s="10">
         <v>9</v>
       </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="12">
+        <v>4</v>
+      </c>
+      <c r="O5" s="13">
+        <v>4</v>
+      </c>
+      <c r="P5" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>6</v>
+      </c>
+      <c r="R5" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -843,35 +1060,35 @@
       <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
-      </c>
-      <c r="Q6">
-        <v>7</v>
-      </c>
-      <c r="R6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10">
+        <v>4</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="12">
+        <v>4</v>
+      </c>
+      <c r="O6" s="13">
+        <v>7</v>
+      </c>
+      <c r="P6" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>7</v>
+      </c>
+      <c r="R6" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -899,35 +1116,35 @@
       <c r="I7" t="s">
         <v>36</v>
       </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-      <c r="R7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J7" s="8">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9">
+        <v>3</v>
+      </c>
+      <c r="L7" s="10">
+        <v>5</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="12">
+        <v>3</v>
+      </c>
+      <c r="O7" s="13">
+        <v>4</v>
+      </c>
+      <c r="P7" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>3</v>
+      </c>
+      <c r="R7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -955,35 +1172,35 @@
       <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10">
         <v>8</v>
       </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-      <c r="M8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="12">
+        <v>4</v>
+      </c>
+      <c r="O8" s="13">
+        <v>6</v>
+      </c>
+      <c r="P8" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>7</v>
+      </c>
+      <c r="R8" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1011,35 +1228,35 @@
       <c r="I9" t="s">
         <v>36</v>
       </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="8">
+        <v>4</v>
+      </c>
+      <c r="K9" s="9">
         <v>2</v>
       </c>
-      <c r="L9">
-        <v>7</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L9" s="10">
+        <v>3</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="12">
+        <v>5</v>
+      </c>
+      <c r="O9" s="13">
+        <v>5</v>
+      </c>
+      <c r="P9" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>4</v>
+      </c>
+      <c r="R9" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1067,35 +1284,35 @@
       <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <v>7</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J10" s="8">
+        <v>5</v>
+      </c>
+      <c r="K10" s="9">
+        <v>6</v>
+      </c>
+      <c r="L10" s="10">
+        <v>7</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="12">
+        <v>4</v>
+      </c>
+      <c r="O10" s="13">
+        <v>7</v>
+      </c>
+      <c r="P10" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>7</v>
+      </c>
+      <c r="R10" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1123,35 +1340,35 @@
       <c r="I11" t="s">
         <v>34</v>
       </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
-      </c>
-      <c r="R11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J11" s="8">
+        <v>4</v>
+      </c>
+      <c r="K11" s="9">
+        <v>5</v>
+      </c>
+      <c r="L11" s="10">
+        <v>4</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="12">
+        <v>5</v>
+      </c>
+      <c r="O11" s="13">
+        <v>5</v>
+      </c>
+      <c r="P11" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>5</v>
+      </c>
+      <c r="R11" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1179,35 +1396,35 @@
       <c r="I12" t="s">
         <v>36</v>
       </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-      <c r="R12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J12" s="8">
+        <v>4</v>
+      </c>
+      <c r="K12" s="9">
+        <v>4</v>
+      </c>
+      <c r="L12" s="10">
+        <v>5</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="12">
+        <v>4</v>
+      </c>
+      <c r="O12" s="13">
+        <v>4</v>
+      </c>
+      <c r="P12" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>5</v>
+      </c>
+      <c r="R12" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1235,35 +1452,35 @@
       <c r="I13" t="s">
         <v>36</v>
       </c>
-      <c r="J13">
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
+      <c r="J13" s="8">
+        <v>7</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3</v>
+      </c>
+      <c r="L13" s="10">
         <v>8</v>
       </c>
-      <c r="M13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>7</v>
-      </c>
-      <c r="P13">
-        <v>7</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
-      </c>
-      <c r="R13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="12">
+        <v>7</v>
+      </c>
+      <c r="O13" s="13">
+        <v>6</v>
+      </c>
+      <c r="P13" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>4</v>
+      </c>
+      <c r="R13" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1291,35 +1508,35 @@
       <c r="I14" t="s">
         <v>37</v>
       </c>
-      <c r="J14">
-        <v>7</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14">
-        <v>6</v>
-      </c>
-      <c r="O14">
-        <v>6</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J14" s="8">
+        <v>5</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4</v>
+      </c>
+      <c r="L14" s="10">
+        <v>7</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="12">
+        <v>6</v>
+      </c>
+      <c r="O14" s="13">
+        <v>6</v>
+      </c>
+      <c r="P14" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>6</v>
+      </c>
+      <c r="R14" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1347,35 +1564,35 @@
       <c r="I15" t="s">
         <v>34</v>
       </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15">
-        <v>6</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
-        <v>6</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-      <c r="R15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J15" s="8">
+        <v>3</v>
+      </c>
+      <c r="K15" s="9">
+        <v>7</v>
+      </c>
+      <c r="L15" s="10">
+        <v>3</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="12">
+        <v>4</v>
+      </c>
+      <c r="O15" s="13">
+        <v>3</v>
+      </c>
+      <c r="P15" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>3</v>
+      </c>
+      <c r="R15" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1403,31 +1620,31 @@
       <c r="I16" t="s">
         <v>34</v>
       </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="P16">
-        <v>4</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-      <c r="R16">
+      <c r="J16" s="8">
+        <v>4</v>
+      </c>
+      <c r="K16" s="9">
+        <v>8</v>
+      </c>
+      <c r="L16" s="10">
+        <v>6</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="12">
+        <v>7</v>
+      </c>
+      <c r="O16" s="13">
+        <v>4</v>
+      </c>
+      <c r="P16" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>6</v>
+      </c>
+      <c r="R16" s="14">
         <v>4</v>
       </c>
     </row>
@@ -1460,19 +1677,19 @@
         <v>36</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O17">
         <v>6</v>
@@ -1481,10 +1698,10 @@
         <v>7</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1519,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <v>7</v>
@@ -1534,10 +1751,10 @@
         <v>2</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>3</v>
@@ -1572,16 +1789,16 @@
         <v>36</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>6</v>
@@ -1596,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -1628,31 +1845,31 @@
         <v>36</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -1684,31 +1901,31 @@
         <v>34</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -1740,31 +1957,31 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q22">
         <v>7</v>
       </c>
       <c r="R22">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -1799,28 +2016,28 @@
         <v>5</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P23">
         <v>6</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -1852,16 +2069,16 @@
         <v>36</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>6</v>
@@ -1870,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R24">
         <v>4</v>
@@ -1911,13 +2128,13 @@
         <v>5</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N25">
         <v>6</v>
@@ -1926,7 +2143,7 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>5</v>
